--- a/teaching/traditional_assets/database/data/canada/canada_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07725</v>
+        <v>0.0716</v>
       </c>
       <c r="E2">
-        <v>0.0949</v>
+        <v>0.0553</v>
       </c>
       <c r="F2">
-        <v>0.0394</v>
+        <v>0.1169</v>
       </c>
       <c r="G2">
-        <v>0.2044723078274724</v>
+        <v>0.2256020925221175</v>
       </c>
       <c r="H2">
-        <v>0.1970125194229954</v>
+        <v>0.2189654552517444</v>
       </c>
       <c r="I2">
-        <v>0.2138635612305217</v>
+        <v>0.1995590672187694</v>
       </c>
       <c r="J2">
-        <v>0.1909075165649005</v>
+        <v>0.1807346910401366</v>
       </c>
       <c r="K2">
-        <v>1155.232</v>
+        <v>1226.821</v>
       </c>
       <c r="L2">
-        <v>0.2451577798725775</v>
+        <v>0.2397234122210732</v>
       </c>
       <c r="M2">
-        <v>1175.37768</v>
+        <v>671.8817</v>
       </c>
       <c r="N2">
-        <v>0.05638208920857787</v>
+        <v>0.03006348898104414</v>
       </c>
       <c r="O2">
-        <v>1.017438644358882</v>
+        <v>0.5476607426837331</v>
       </c>
       <c r="P2">
-        <v>513.12968</v>
+        <v>468.2357</v>
       </c>
       <c r="Q2">
-        <v>0.02461449105731616</v>
+        <v>0.02095130557579033</v>
       </c>
       <c r="R2">
-        <v>0.444178900861472</v>
+        <v>0.3816658664956012</v>
       </c>
       <c r="S2">
-        <v>662.248</v>
+        <v>203.646</v>
       </c>
       <c r="T2">
-        <v>0.5634342146092139</v>
+        <v>0.3030980007343554</v>
       </c>
       <c r="U2">
-        <v>1497.53</v>
+        <v>2075.608</v>
       </c>
       <c r="V2">
-        <v>0.07183552273386851</v>
+        <v>0.09287351960466711</v>
       </c>
       <c r="W2">
-        <v>0.09247735420292774</v>
+        <v>0.04024655963302752</v>
       </c>
       <c r="X2">
-        <v>0.03220147709110657</v>
+        <v>0.02059507551535255</v>
       </c>
       <c r="Y2">
-        <v>0.06027587711182117</v>
+        <v>0.01965148411767497</v>
       </c>
       <c r="Z2">
-        <v>0.07412870018325346</v>
+        <v>0.07902385505282666</v>
       </c>
       <c r="AA2">
-        <v>0.0005001027148689092</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02858028140808578</v>
+        <v>0.01938860215393592</v>
       </c>
       <c r="AC2">
-        <v>-0.02696251673324428</v>
+        <v>-0.01920480119007638</v>
       </c>
       <c r="AD2">
-        <v>53364.669</v>
+        <v>53588.907</v>
       </c>
       <c r="AE2">
-        <v>343.4527724832893</v>
+        <v>42.67570264865115</v>
       </c>
       <c r="AF2">
-        <v>53708.12177248329</v>
+        <v>53631.58270264865</v>
       </c>
       <c r="AG2">
-        <v>52210.59177248329</v>
+        <v>51555.97470264865</v>
       </c>
       <c r="AH2">
-        <v>0.720384765396142</v>
+        <v>0.7058612898409454</v>
       </c>
       <c r="AI2">
-        <v>0.788656441193332</v>
+        <v>0.791198400175787</v>
       </c>
       <c r="AJ2">
-        <v>0.7146532021435854</v>
+        <v>0.6976004299329546</v>
       </c>
       <c r="AK2">
-        <v>0.7839045214042345</v>
+        <v>0.7846028649303194</v>
       </c>
       <c r="AL2">
-        <v>337.474</v>
+        <v>295.811</v>
       </c>
       <c r="AM2">
-        <v>333.114</v>
+        <v>292.771</v>
       </c>
       <c r="AN2">
-        <v>47.09014290819727</v>
+        <v>49.28513212253201</v>
       </c>
       <c r="AO2">
-        <v>2.99501591233695</v>
+        <v>3.433033254341455</v>
       </c>
       <c r="AP2">
-        <v>46.07176009819879</v>
+        <v>47.41546650552057</v>
       </c>
       <c r="AQ2">
-        <v>3.034216514466519</v>
+        <v>3.46868029961984</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Mint Corporation (TSXV:MIT)</t>
+          <t>Midpoint Holdings Ltd. (TSXV:MPT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,17 +727,35 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.164</v>
+      </c>
+      <c r="G3">
+        <v>-2.750841750841751</v>
+      </c>
+      <c r="H3">
+        <v>-2.723905723905724</v>
+      </c>
+      <c r="I3">
+        <v>-2.620227926645027</v>
+      </c>
+      <c r="J3">
+        <v>-2.620227926645027</v>
+      </c>
       <c r="K3">
-        <v>-5.15</v>
+        <v>-0.801</v>
+      </c>
+      <c r="L3">
+        <v>-2.696969696969697</v>
       </c>
       <c r="M3">
-        <v>5.88</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>1.298013245033113</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-1.141747572815534</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,73 +767,70 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5.88</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.005</v>
+        <v>0.702</v>
       </c>
       <c r="V3">
-        <v>0.001103752759381898</v>
+        <v>0.148728813559322</v>
       </c>
       <c r="W3">
-        <v>0.4087301587301588</v>
+        <v>-2.176630434782609</v>
       </c>
       <c r="X3">
-        <v>0.04603182223831351</v>
+        <v>0.01709417724753891</v>
       </c>
       <c r="Y3">
-        <v>0.3626983364918452</v>
+        <v>-2.193724612030148</v>
       </c>
       <c r="Z3">
-        <v>-0</v>
+        <v>-2.829608171885826</v>
       </c>
       <c r="AA3">
-        <v>0.833333333333333</v>
+        <v>7.414218353438225</v>
       </c>
       <c r="AB3">
-        <v>0.07094926667038004</v>
+        <v>0.01757686378738084</v>
       </c>
       <c r="AC3">
-        <v>0.762384066662953</v>
+        <v>7.396641489650844</v>
       </c>
       <c r="AD3">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.03603847106786495</v>
       </c>
       <c r="AF3">
-        <v>15.1</v>
+        <v>0.03603847106786495</v>
       </c>
       <c r="AG3">
-        <v>15.095</v>
+        <v>-0.665961528932135</v>
       </c>
       <c r="AH3">
-        <v>0.7692307692307693</v>
+        <v>0.007577413699888195</v>
       </c>
       <c r="AI3">
-        <v>-7.549999999999993</v>
+        <v>0.07207139680853442</v>
       </c>
       <c r="AJ3">
-        <v>0.7691719745222929</v>
+        <v>-0.1642711418958774</v>
       </c>
       <c r="AK3">
-        <v>-7.528678304239391</v>
+        <v>3.297467257518721</v>
       </c>
       <c r="AL3">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.64</v>
-      </c>
-      <c r="AO3">
-        <v>-0.3825757575757576</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.3825757575757576</v>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
+      </c>
+      <c r="AP3">
+        <v>0.8283103593683272</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Royalty North Partners Ltd. (TSXV:RNP)</t>
+          <t>Fineqia International Inc. (CNSX:FNQ)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.925207756232687</v>
+        <v>-1.948905109489051</v>
       </c>
       <c r="J4">
-        <v>0.925207756232687</v>
+        <v>-1.948905109489051</v>
       </c>
       <c r="K4">
-        <v>2.82</v>
+        <v>-0.342</v>
       </c>
       <c r="L4">
-        <v>0.7811634349030471</v>
+        <v>-1.248175182481752</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -859,7 +874,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -868,73 +883,70 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.094</v>
+        <v>0.049</v>
       </c>
       <c r="V4">
-        <v>0.04292237442922375</v>
+        <v>0.008221476510067114</v>
       </c>
       <c r="W4">
-        <v>0.9399999999999999</v>
+        <v>0.6380597014925373</v>
       </c>
       <c r="X4">
-        <v>0.03070993017874211</v>
+        <v>0.01710994252200398</v>
       </c>
       <c r="Y4">
-        <v>0.9092900698212578</v>
+        <v>0.6209497589705334</v>
       </c>
       <c r="Z4">
-        <v>0.4601657106437221</v>
+        <v>-0.4892857142857143</v>
       </c>
       <c r="AA4">
-        <v>0.425748884639898</v>
+        <v>0.9535714285714285</v>
       </c>
       <c r="AB4">
-        <v>0.04955850334017824</v>
+        <v>0.01716065194804777</v>
       </c>
       <c r="AC4">
-        <v>0.3761903812997198</v>
+        <v>0.9364107766233808</v>
       </c>
       <c r="AD4">
-        <v>1.43</v>
+        <v>0.062</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.43</v>
+        <v>0.062</v>
       </c>
       <c r="AG4">
-        <v>1.336</v>
+        <v>0.013</v>
       </c>
       <c r="AH4">
-        <v>0.3950276243093923</v>
+        <v>0.01029558286283627</v>
       </c>
       <c r="AI4">
-        <v>0.1972413793103448</v>
+        <v>-0.07798742138364781</v>
       </c>
       <c r="AJ4">
-        <v>0.3788996029495179</v>
+        <v>0.002176460739996651</v>
       </c>
       <c r="AK4">
-        <v>0.1866964784795975</v>
+        <v>-0.01540284360189573</v>
       </c>
       <c r="AL4">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.467</v>
-      </c>
-      <c r="AO4">
-        <v>7.152034261241969</v>
+        <v>-0.013</v>
       </c>
       <c r="AQ4">
-        <v>7.152034261241969</v>
+        <v>41.07692307692308</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TMX Group Limited (TSX:X)</t>
+          <t>TIMIA Capital Corp. (TSXV:TCA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,124 +966,109 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0717</v>
-      </c>
-      <c r="E5">
-        <v>0.218</v>
-      </c>
-      <c r="F5">
-        <v>0.0688</v>
+        <v>1.33</v>
       </c>
       <c r="G5">
-        <v>0.5695584910151137</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5555158871831489</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6123301724848016</v>
+        <v>0.4042553191489362</v>
       </c>
       <c r="J5">
-        <v>0.4647779856700281</v>
+        <v>0.4042553191489362</v>
       </c>
       <c r="K5">
-        <v>203.9</v>
+        <v>-0.676</v>
       </c>
       <c r="L5">
-        <v>0.2426514340116625</v>
+        <v>-0.2054711246200608</v>
       </c>
       <c r="M5">
-        <v>103.2</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.02125381003377543</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.5061304561059343</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>103.2</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02125381003377543</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.5061304561059343</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>130.5</v>
+        <v>6.28</v>
       </c>
       <c r="V5">
-        <v>0.02687618419968696</v>
+        <v>0.8734353268428373</v>
       </c>
       <c r="W5">
-        <v>0.07948697957274288</v>
+        <v>-0.3363184079601991</v>
       </c>
       <c r="X5">
-        <v>0.02808690915843971</v>
+        <v>0.02351597789409955</v>
       </c>
       <c r="Y5">
-        <v>0.05140007041430317</v>
+        <v>-0.3598343858542986</v>
       </c>
       <c r="Z5">
-        <v>0.2464371184018326</v>
+        <v>0.7615740740740741</v>
       </c>
       <c r="AA5">
-        <v>0.11453854748513</v>
+        <v>0.3078703703703703</v>
       </c>
       <c r="AB5">
-        <v>0.0268905375522163</v>
+        <v>0.02109563264225249</v>
       </c>
       <c r="AC5">
-        <v>0.08764800993291366</v>
+        <v>0.2867747377281178</v>
       </c>
       <c r="AD5">
-        <v>850.7</v>
+        <v>8.16</v>
       </c>
       <c r="AE5">
-        <v>91.79478030510631</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>942.4947803051064</v>
+        <v>8.16</v>
       </c>
       <c r="AG5">
-        <v>811.9947803051064</v>
+        <v>1.88</v>
       </c>
       <c r="AH5">
-        <v>0.1625524962969837</v>
+        <v>0.5315960912052117</v>
       </c>
       <c r="AI5">
-        <v>0.2662493771139355</v>
+        <v>0.304932735426009</v>
       </c>
       <c r="AJ5">
-        <v>0.1432697311259422</v>
+        <v>0.207276736493936</v>
       </c>
       <c r="AK5">
-        <v>0.2381639066838839</v>
+        <v>0.09179687499999999</v>
       </c>
       <c r="AL5">
-        <v>258.2</v>
+        <v>1.17</v>
       </c>
       <c r="AM5">
-        <v>255.41</v>
-      </c>
-      <c r="AN5">
-        <v>1.451954258405871</v>
+        <v>1.17</v>
       </c>
       <c r="AO5">
-        <v>2.015104570100697</v>
-      </c>
-      <c r="AP5">
-        <v>1.38589312221387</v>
+        <v>1.136752136752137</v>
       </c>
       <c r="AQ5">
-        <v>2.037116792607963</v>
+        <v>1.136752136752137</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genworth MI Canada Inc. (TSX:MIC)</t>
+          <t>Trichome Financial Corp. (CNSX:TFC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1090,122 +1087,107 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.0326</v>
-      </c>
-      <c r="E6">
-        <v>0.00771</v>
-      </c>
       <c r="G6">
-        <v>0.6926686217008797</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6926686217008797</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7289981886315651</v>
+        <v>-0.9543568464730289</v>
       </c>
       <c r="J6">
-        <v>0.5377679699907769</v>
+        <v>-0.9543568464730289</v>
       </c>
       <c r="K6">
-        <v>300.9</v>
+        <v>-2.84</v>
       </c>
       <c r="L6">
-        <v>0.4412023460410557</v>
+        <v>-1.178423236514523</v>
       </c>
       <c r="M6">
-        <v>224.6</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.06004865919846001</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.7464273845131273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>135.1</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.03612009731839692</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.4489863742107013</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>89.5</v>
-      </c>
-      <c r="T6">
-        <v>0.3984861976847729</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>354</v>
+        <v>3.98</v>
       </c>
       <c r="V6">
-        <v>0.09464481458706521</v>
+        <v>0.08105906313645621</v>
       </c>
       <c r="W6">
-        <v>0.09652893622481715</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.02752725109879665</v>
+        <v>0.01845456456020081</v>
       </c>
       <c r="Y6">
-        <v>0.06900168512602049</v>
+        <v>0.9815454354397992</v>
       </c>
       <c r="Z6">
-        <v>0.2014130705858179</v>
+        <v>-0.3101673101673102</v>
       </c>
       <c r="AA6">
-        <v>0.1083134980985443</v>
+        <v>0.296010296010296</v>
       </c>
       <c r="AB6">
-        <v>0.02724653651872738</v>
+        <v>0.01855508856055326</v>
       </c>
       <c r="AC6">
-        <v>0.08106696157981697</v>
+        <v>0.2774552074497427</v>
       </c>
       <c r="AD6">
-        <v>351.7</v>
+        <v>12.1</v>
       </c>
       <c r="AE6">
-        <v>8.116176766363226</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>359.8161767663632</v>
+        <v>12.1</v>
       </c>
       <c r="AG6">
-        <v>5.816176766363242</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.08775755643347143</v>
+        <v>0.1977124183006536</v>
       </c>
       <c r="AI6">
-        <v>0.1058651477611516</v>
+        <v>0.3622754491017964</v>
       </c>
       <c r="AJ6">
-        <v>0.001552588465471391</v>
+        <v>0.141908423628102</v>
       </c>
       <c r="AK6">
-        <v>0.001910189787726398</v>
+        <v>0.2760027192386131</v>
       </c>
       <c r="AL6">
-        <v>71.5</v>
+        <v>0.231</v>
       </c>
       <c r="AM6">
-        <v>71.5</v>
-      </c>
-      <c r="AN6">
-        <v>0.7014359792580774</v>
+        <v>0.231</v>
       </c>
       <c r="AO6">
-        <v>6.945454545454546</v>
-      </c>
-      <c r="AP6">
-        <v>0.01159987388584612</v>
+        <v>-9.956709956709956</v>
       </c>
       <c r="AQ6">
-        <v>6.945454545454546</v>
+        <v>-9.956709956709956</v>
       </c>
     </row>
     <row r="7">
@@ -1216,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Automotive Finco Corp. (TSXV:AFCC)</t>
+          <t>The Mint Corporation (TSXV:MIT)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1224,110 +1206,95 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.9465346534653466</v>
-      </c>
-      <c r="J7">
-        <v>0.9465346534653466</v>
-      </c>
       <c r="K7">
-        <v>2.47</v>
-      </c>
-      <c r="L7">
-        <v>0.4891089108910892</v>
+        <v>-0.31</v>
       </c>
       <c r="M7">
-        <v>3.58</v>
+        <v>0.093</v>
       </c>
       <c r="N7">
-        <v>0.1563318777292577</v>
+        <v>0.01347826086956522</v>
       </c>
       <c r="O7">
-        <v>1.449392712550607</v>
+        <v>-0.3</v>
       </c>
       <c r="P7">
-        <v>3.58</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.1563318777292577</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>1.449392712550607</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>58.3</v>
+        <v>0.041</v>
       </c>
       <c r="V7">
-        <v>2.545851528384279</v>
+        <v>0.005942028985507246</v>
       </c>
       <c r="W7">
-        <v>0.06190476190476191</v>
+        <v>0.01812865497076023</v>
       </c>
       <c r="X7">
-        <v>0.03219444043505135</v>
+        <v>0.03232457743020515</v>
       </c>
       <c r="Y7">
-        <v>0.02971032146971056</v>
+        <v>-0.01419592245944492</v>
       </c>
       <c r="Z7">
-        <v>0.0860746548491563</v>
+        <v>-0</v>
       </c>
       <c r="AA7">
-        <v>0.08147264359979547</v>
+        <v>0.2783042394014961</v>
       </c>
       <c r="AB7">
-        <v>0.02882684899458164</v>
+        <v>0.02483041867198486</v>
       </c>
       <c r="AC7">
-        <v>0.05264579460521383</v>
+        <v>0.2534738207295112</v>
       </c>
       <c r="AD7">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="AG7">
-        <v>-37.4</v>
+        <v>18.459</v>
       </c>
       <c r="AH7">
-        <v>0.4771689497716895</v>
+        <v>0.7283464566929134</v>
       </c>
       <c r="AI7">
-        <v>0.3560477001703578</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AJ7">
-        <v>2.579310344827586</v>
+        <v>0.7279072518632438</v>
       </c>
       <c r="AK7">
-        <v>-93.50000000000033</v>
+        <v>15.92666091458155</v>
       </c>
       <c r="AL7">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="AM7">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="AO7">
-        <v>2.244131455399061</v>
+        <v>-0.1811688311688312</v>
       </c>
       <c r="AQ7">
-        <v>2.244131455399061</v>
+        <v>-0.1811688311688312</v>
       </c>
     </row>
     <row r="8">
@@ -1338,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIMIA Capital Corp. (TSXV:TCA)</t>
+          <t>Genworth MI Canada Inc. (TSX:MIC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1347,43 +1314,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.9370000000000001</v>
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.0188</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.7096313232352102</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7096313232352102</v>
       </c>
       <c r="I8">
-        <v>0.1414285714285714</v>
+        <v>0.7156330380108603</v>
       </c>
       <c r="J8">
-        <v>0.1414285714285714</v>
+        <v>0.535758161179378</v>
       </c>
       <c r="K8">
-        <v>-0.918</v>
+        <v>318.7</v>
       </c>
       <c r="L8">
-        <v>-0.4371428571428572</v>
+        <v>0.4554158330951701</v>
       </c>
       <c r="M8">
-        <v>1.45</v>
+        <v>113.3</v>
       </c>
       <c r="N8">
-        <v>0.2530541012216405</v>
+        <v>0.03850990788892288</v>
       </c>
       <c r="O8">
-        <v>-1.579520697167756</v>
+        <v>0.3555067461562598</v>
       </c>
       <c r="P8">
-        <v>1.45</v>
+        <v>113.3</v>
       </c>
       <c r="Q8">
-        <v>0.2530541012216405</v>
+        <v>0.03850990788892288</v>
       </c>
       <c r="R8">
-        <v>-1.579520697167756</v>
+        <v>0.3555067461562598</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1392,67 +1362,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>3.76</v>
+        <v>273.3</v>
       </c>
       <c r="V8">
-        <v>0.6561954624781849</v>
+        <v>0.09289283165086164</v>
       </c>
       <c r="W8">
-        <v>-0.320979020979021</v>
+        <v>0.1048700230338927</v>
       </c>
       <c r="X8">
-        <v>0.03303287425705846</v>
+        <v>0.01811621986553672</v>
       </c>
       <c r="Y8">
-        <v>-0.3540118952360795</v>
+        <v>0.08675380316835601</v>
       </c>
       <c r="Z8">
-        <v>0.544041450777202</v>
+        <v>0.2310898007436614</v>
       </c>
       <c r="AA8">
-        <v>0.07694300518134714</v>
+        <v>0.1238082467137329</v>
       </c>
       <c r="AB8">
-        <v>0.03040792114346991</v>
+        <v>0.01807592590092647</v>
       </c>
       <c r="AC8">
-        <v>0.04653508403787723</v>
+        <v>0.1057323208128064</v>
       </c>
       <c r="AD8">
-        <v>6.07</v>
+        <v>550.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>6.07</v>
+        <v>550.3</v>
       </c>
       <c r="AG8">
-        <v>2.31</v>
+        <v>276.9999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.5144067796610169</v>
+        <v>0.1575707250028634</v>
       </c>
       <c r="AI8">
-        <v>0.4408133623819899</v>
+        <v>0.1631920761543252</v>
       </c>
       <c r="AJ8">
-        <v>0.2873134328358209</v>
+        <v>0.08604889565406479</v>
       </c>
       <c r="AK8">
-        <v>0.2307692307692308</v>
+        <v>0.08938944107396408</v>
       </c>
       <c r="AL8">
-        <v>0.986</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.986</v>
+        <v>70.09999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>1.092515386142545</v>
       </c>
       <c r="AO8">
-        <v>0.3012170385395537</v>
+        <v>7.144079885877319</v>
+      </c>
+      <c r="AP8">
+        <v>0.5499305141949572</v>
       </c>
       <c r="AQ8">
-        <v>0.3012170385395537</v>
+        <v>7.144079885877319</v>
       </c>
     </row>
     <row r="9">
@@ -1463,7 +1439,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Solution Financial Inc. (TSXV:SFI)</t>
+          <t>Findev Inc. (TSXV:FDI)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1472,115 +1448,103 @@
         </is>
       </c>
       <c r="G9">
-        <v>-0.02845360824742268</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.02845360824742268</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06907216494845361</v>
+        <v>0.8924050632911391</v>
       </c>
       <c r="J9">
-        <v>0.03453608247422681</v>
+        <v>0.8924050632911391</v>
       </c>
       <c r="K9">
-        <v>0.014</v>
+        <v>1.37</v>
       </c>
       <c r="L9">
-        <v>0.00288659793814433</v>
+        <v>0.8670886075949368</v>
       </c>
       <c r="M9">
-        <v>0.284</v>
+        <v>0.645</v>
       </c>
       <c r="N9">
-        <v>0.01333333333333333</v>
+        <v>0.05863636363636364</v>
       </c>
       <c r="O9">
-        <v>20.28571428571428</v>
+        <v>0.4708029197080292</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>0.645</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.05863636363636364</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.4708029197080292</v>
       </c>
       <c r="S9">
-        <v>0.284</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.497</v>
+        <v>0.421</v>
       </c>
       <c r="V9">
-        <v>0.02333333333333333</v>
+        <v>0.03827272727272727</v>
       </c>
       <c r="W9">
-        <v>0.002049780380673499</v>
+        <v>0.1062015503875969</v>
       </c>
       <c r="X9">
-        <v>0.02838898171914842</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="Y9">
-        <v>-0.02633920133847492</v>
+        <v>0.08915086936462262</v>
       </c>
       <c r="Z9">
-        <v>0.7475339087546239</v>
+        <v>0.1251088763955975</v>
       </c>
       <c r="AA9">
-        <v>0.02581689272503083</v>
+        <v>0.1116477947580964</v>
       </c>
       <c r="AB9">
-        <v>0.02829808398410623</v>
+        <v>0.01705068102297429</v>
       </c>
       <c r="AC9">
-        <v>-0.002481191259075397</v>
+        <v>0.09459711373512215</v>
       </c>
       <c r="AD9">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>4.763</v>
+        <v>-0.421</v>
       </c>
       <c r="AH9">
-        <v>0.1980421686746988</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.4221508828250401</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.1827494916164678</v>
+        <v>-0.03979582191133377</v>
       </c>
       <c r="AK9">
-        <v>0.3981442781910892</v>
+        <v>-0.03194476060399119</v>
       </c>
       <c r="AL9">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.217</v>
-      </c>
-      <c r="AN9">
-        <v>15.11494252873563</v>
-      </c>
-      <c r="AO9">
-        <v>1.543778801843318</v>
-      </c>
-      <c r="AP9">
-        <v>13.6867816091954</v>
-      </c>
-      <c r="AQ9">
-        <v>1.543778801843318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1591,7 +1555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DelphX Capital Markets Inc. (TSXV:DELX)</t>
+          <t>TMX Group Limited (TSX:X)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1599,110 +1563,125 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0716</v>
+      </c>
+      <c r="E10">
+        <v>0.116</v>
+      </c>
+      <c r="F10">
+        <v>0.09380000000000001</v>
+      </c>
       <c r="G10">
-        <v>-25.08108108108108</v>
+        <v>0.7664136850981809</v>
       </c>
       <c r="H10">
-        <v>-0</v>
+        <v>0.7520780628839898</v>
       </c>
       <c r="I10">
-        <v>-0.3865380677578036</v>
+        <v>0.6124563305625828</v>
       </c>
       <c r="J10">
-        <v>-0.3865380677578036</v>
+        <v>0.4318053643576577</v>
       </c>
       <c r="K10">
-        <v>-4.35</v>
+        <v>191.7</v>
       </c>
       <c r="L10">
-        <v>117.5675675675676</v>
+        <v>0.2309360318033972</v>
       </c>
       <c r="M10">
-        <v>1.55</v>
+        <v>124.4</v>
       </c>
       <c r="N10">
-        <v>0.1657754010695187</v>
+        <v>0.02200484672669061</v>
       </c>
       <c r="O10">
-        <v>-0.3563218390804598</v>
+        <v>0.6489306207616068</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>113.4</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.02005908053703147</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.591549295774648</v>
       </c>
       <c r="S10">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.08842443729903536</v>
       </c>
       <c r="U10">
-        <v>0.136</v>
+        <v>206.8</v>
       </c>
       <c r="V10">
-        <v>0.01454545454545455</v>
+        <v>0.03658040436559178</v>
       </c>
       <c r="W10">
-        <v>-8.176691729323307</v>
+        <v>0.07380457380457379</v>
       </c>
       <c r="X10">
-        <v>0.02775469569211969</v>
+        <v>0.0178331491041905</v>
       </c>
       <c r="Y10">
-        <v>-8.204446425015426</v>
+        <v>0.0559714247003833</v>
       </c>
       <c r="Z10">
-        <v>-0.05749891015598097</v>
+        <v>0.250210995900651</v>
       </c>
       <c r="AA10">
-        <v>0.02222551762987244</v>
+        <v>0.108042450251173</v>
       </c>
       <c r="AB10">
-        <v>0.02777568123605206</v>
+        <v>0.01738376152146569</v>
       </c>
       <c r="AC10">
-        <v>-0.005550163606179621</v>
+        <v>0.09065868872970731</v>
       </c>
       <c r="AD10">
-        <v>0.923</v>
+        <v>776.5</v>
       </c>
       <c r="AE10">
-        <v>0.3484904574648063</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.271490457464806</v>
+        <v>776.5</v>
       </c>
       <c r="AG10">
-        <v>1.135490457464806</v>
+        <v>569.7</v>
       </c>
       <c r="AH10">
-        <v>0.1197092312568243</v>
+        <v>0.1207658092009083</v>
       </c>
       <c r="AI10">
-        <v>-4.918543605761499</v>
+        <v>0.2227928729234212</v>
       </c>
       <c r="AJ10">
-        <v>0.1082915922789697</v>
+        <v>0.0915474851357866</v>
       </c>
       <c r="AK10">
-        <v>-2.878233185863966</v>
+        <v>0.1737684916882721</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>220.1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>218.07</v>
       </c>
       <c r="AN10">
-        <v>10.98809523809524</v>
+        <v>1.383642195295795</v>
+      </c>
+      <c r="AO10">
+        <v>2.309859154929577</v>
       </c>
       <c r="AP10">
-        <v>13.51774354124769</v>
+        <v>1.015146115466857</v>
+      </c>
+      <c r="AQ10">
+        <v>2.331361489429999</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marble Financial Inc. (CNSX:MRBL)</t>
+          <t>Goldmoney Inc. (TSX:XAU)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1722,106 +1701,115 @@
         </is>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.001735474006116208</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.0001357033639143731</v>
       </c>
       <c r="I11">
-        <v>0.2148238193290166</v>
+        <v>0.01425840978593272</v>
       </c>
       <c r="J11">
-        <v>0.2148238193290166</v>
+        <v>0.01170569448554799</v>
       </c>
       <c r="K11">
-        <v>-1.48</v>
+        <v>2.03</v>
       </c>
       <c r="L11">
-        <v>-6.351931330472103</v>
+        <v>0.003879969418960244</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>5.213</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.03563226247436774</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.567980295566503</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.223</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.001524265208475735</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.1098522167487685</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>4.99</v>
+      </c>
+      <c r="T11">
+        <v>0.9572223287934012</v>
       </c>
       <c r="U11">
-        <v>2.07</v>
+        <v>16.6</v>
       </c>
       <c r="V11">
-        <v>0.2423887587822014</v>
+        <v>0.1134654818865345</v>
       </c>
       <c r="W11">
-        <v>1.321428571428571</v>
+        <v>0.01398071625344353</v>
       </c>
       <c r="X11">
-        <v>0.03007630162400346</v>
+        <v>0.01709740761670131</v>
       </c>
       <c r="Y11">
-        <v>1.291352269804568</v>
+        <v>-0.003116691363257788</v>
       </c>
       <c r="Z11">
-        <v>0.1021154888711369</v>
+        <v>5.534165432621115</v>
       </c>
       <c r="AA11">
-        <v>0.02193683933194733</v>
+        <v>0.06478124978674329</v>
       </c>
       <c r="AB11">
-        <v>0.02932178369794773</v>
+        <v>0.0171125853174468</v>
       </c>
       <c r="AC11">
-        <v>-0.007384944366000401</v>
+        <v>0.0476686644692965</v>
       </c>
       <c r="AD11">
-        <v>4.57</v>
+        <v>1.2</v>
       </c>
       <c r="AE11">
-        <v>0.05973025048169556</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>4.629730250481696</v>
+        <v>1.2</v>
       </c>
       <c r="AG11">
-        <v>2.559730250481696</v>
+        <v>-15.4</v>
       </c>
       <c r="AH11">
-        <v>0.3515432861893553</v>
+        <v>0.008135593220338983</v>
       </c>
       <c r="AI11">
-        <v>0.9927096984229549</v>
+        <v>0.008752735229759299</v>
       </c>
       <c r="AJ11">
-        <v>0.2306119331477098</v>
+        <v>-0.1176470588235294</v>
       </c>
       <c r="AK11">
-        <v>0.9868914664531189</v>
+        <v>-0.1278008298755187</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="AN11">
-        <v>73.70967741935485</v>
+        <v>0.1483312731767614</v>
+      </c>
+      <c r="AO11">
+        <v>257.2413793103448</v>
       </c>
       <c r="AP11">
-        <v>41.28597178196284</v>
+        <v>-1.903584672435105</v>
+      </c>
+      <c r="AQ11">
+        <v>-7.944621938232162</v>
       </c>
     </row>
     <row r="12">
@@ -1832,7 +1820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Inspira Financial Inc. (TSXV:LND)</t>
+          <t>Solution Financial Inc. (TSXV:SFI)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1841,106 +1829,115 @@
         </is>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.06252747252747252</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06252747252747252</v>
       </c>
       <c r="I12">
-        <v>0.01599739399841824</v>
+        <v>0.09736263736263737</v>
       </c>
       <c r="J12">
-        <v>0.01599739399841824</v>
+        <v>0.07082963226150293</v>
       </c>
       <c r="K12">
-        <v>0.297</v>
+        <v>0.315</v>
       </c>
       <c r="L12">
-        <v>0.1579787234042553</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>0.618</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.02013029315960912</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>1.961904761904762</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>0.236</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.00768729641693811</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.7492063492063492</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.382</v>
+      </c>
+      <c r="T12">
+        <v>0.6181229773462783</v>
       </c>
       <c r="U12">
-        <v>7.27</v>
+        <v>0.67</v>
       </c>
       <c r="V12">
-        <v>1.726840855106888</v>
+        <v>0.02182410423452769</v>
       </c>
       <c r="W12">
-        <v>0.03429561200923787</v>
+        <v>0.04375</v>
       </c>
       <c r="X12">
-        <v>0.02773855661768267</v>
+        <v>0.01879310733184109</v>
       </c>
       <c r="Y12">
-        <v>0.006557055391555197</v>
+        <v>0.02495689266815891</v>
       </c>
       <c r="Z12">
-        <v>0.8803045681279684</v>
+        <v>0.7606787595084844</v>
       </c>
       <c r="AA12">
-        <v>0.01408257901495053</v>
+        <v>0.05387859680512219</v>
       </c>
       <c r="AB12">
-        <v>0.02776105426969537</v>
+        <v>0.01955250341949417</v>
       </c>
       <c r="AC12">
-        <v>-0.01367847525474485</v>
+        <v>0.03432609338562802</v>
       </c>
       <c r="AD12">
-        <v>0.446</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AE12">
-        <v>0.1146244964148685</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.5606244964148686</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AG12">
-        <v>-6.709375503585131</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.117515955581115</v>
+        <v>0.2342229982539286</v>
       </c>
       <c r="AI12">
-        <v>0.06180660401458062</v>
+        <v>0.5572700296735905</v>
       </c>
       <c r="AJ12">
-        <v>2.684420765891772</v>
+        <v>0.2212075088787418</v>
       </c>
       <c r="AK12">
-        <v>-3.726138079840535</v>
+        <v>0.5389369592088999</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="AN12">
-        <v>8.415094339622643</v>
+        <v>10.45657015590201</v>
+      </c>
+      <c r="AO12">
+        <v>1.754455445544554</v>
       </c>
       <c r="AP12">
-        <v>-126.5919906336817</v>
+        <v>9.710467706013363</v>
+      </c>
+      <c r="AQ12">
+        <v>1.754455445544554</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mogo Inc. (TSX:MOGO)</t>
+          <t>Gravitas Financial Inc. (CNSX:GFI)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1960,22 +1957,22 @@
         </is>
       </c>
       <c r="G13">
-        <v>0.5648148148148148</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02762232918507465</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02762232918507465</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-6.43</v>
+        <v>102.7</v>
       </c>
       <c r="L13">
-        <v>-0.2976851851851852</v>
+        <v>618.6746987951807</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1984,7 +1981,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1993,73 +1990,67 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>10.3</v>
+        <v>0.076</v>
       </c>
       <c r="V13">
-        <v>0.1494920174165457</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="W13">
-        <v>1.701058201058201</v>
+        <v>-1.019860973187686</v>
       </c>
       <c r="X13">
-        <v>0.03576398292631026</v>
+        <v>0.01720059551118182</v>
       </c>
       <c r="Y13">
-        <v>1.665294218131891</v>
+        <v>-1.037061568698868</v>
       </c>
       <c r="Z13">
-        <v>0.2953773912190346</v>
+        <v>-0.004505360293119826</v>
       </c>
       <c r="AA13">
-        <v>0.008159011534080749</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
-        <v>0.03101776008308913</v>
+        <v>0.01732456229294639</v>
       </c>
       <c r="AC13">
-        <v>-0.02285874854900838</v>
+        <v>-0.01732456229294639</v>
       </c>
       <c r="AD13">
-        <v>104.3</v>
+        <v>0.03</v>
       </c>
       <c r="AE13">
-        <v>1.606788448011938</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>105.9067884480119</v>
+        <v>0.03</v>
       </c>
       <c r="AG13">
-        <v>95.60678844801194</v>
+        <v>-0.046</v>
       </c>
       <c r="AH13">
-        <v>0.6058505472715605</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="AI13">
-        <v>0.9455390152282482</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="AJ13">
-        <v>0.5811722990278055</v>
+        <v>-0.04204753199268739</v>
       </c>
       <c r="AK13">
-        <v>0.9400236690875551</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>113.6165577342048</v>
-      </c>
-      <c r="AP13">
-        <v>104.1468283747407</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2061,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Accord Financial Corp. (TSX:ACD)</t>
+          <t>Atrium Mortgage Investment Corporation (TSX:AI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2079,10 +2070,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0795</v>
+        <v>0.113</v>
       </c>
       <c r="E14">
-        <v>0.0949</v>
+        <v>0.112</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2091,34 +2082,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00259280567229266</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.002166770062833282</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.51</v>
+        <v>29.2</v>
       </c>
       <c r="L14">
-        <v>0.2855704697986577</v>
+        <v>0.8066298342541436</v>
       </c>
       <c r="M14">
-        <v>2.29</v>
+        <v>26.6</v>
       </c>
       <c r="N14">
-        <v>0.03572542901716069</v>
+        <v>0.06318289786223279</v>
       </c>
       <c r="O14">
-        <v>0.2690951821386604</v>
+        <v>0.9109589041095891</v>
       </c>
       <c r="P14">
-        <v>2.29</v>
+        <v>26.6</v>
       </c>
       <c r="Q14">
-        <v>0.03572542901716069</v>
+        <v>0.06318289786223279</v>
       </c>
       <c r="R14">
-        <v>0.2690951821386604</v>
+        <v>0.9109589041095891</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2127,67 +2118,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>0.05553822152886116</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.13486529318542</v>
+        <v>0.09040247678018576</v>
       </c>
       <c r="X14">
-        <v>0.04698621149903296</v>
+        <v>0.01949987781606546</v>
       </c>
       <c r="Y14">
-        <v>0.087879081686387</v>
+        <v>0.07090259896412029</v>
       </c>
       <c r="Z14">
-        <v>0.1337710537954037</v>
+        <v>0.0640254686947294</v>
       </c>
       <c r="AA14">
-        <v>0.0002898511146375413</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.02656200262153801</v>
+        <v>0.01787993448598598</v>
       </c>
       <c r="AC14">
-        <v>-0.02627215150690047</v>
+        <v>-0.01787993448598598</v>
       </c>
       <c r="AD14">
-        <v>222.7</v>
+        <v>181</v>
       </c>
       <c r="AE14">
-        <v>1.668671954828393</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>224.3686719548284</v>
+        <v>181</v>
       </c>
       <c r="AG14">
-        <v>220.8086719548284</v>
+        <v>181</v>
       </c>
       <c r="AH14">
-        <v>0.7777921617428271</v>
+        <v>0.3006644518272426</v>
       </c>
       <c r="AI14">
-        <v>0.7517327379296457</v>
+        <v>0.3424139235716988</v>
       </c>
       <c r="AJ14">
-        <v>0.7750156232164007</v>
+        <v>0.3006644518272426</v>
       </c>
       <c r="AK14">
-        <v>0.7487357712853219</v>
+        <v>0.3424139235716988</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>541.8491484184915</v>
-      </c>
-      <c r="AP14">
-        <v>537.2473770190472</v>
       </c>
     </row>
     <row r="15">
@@ -2198,7 +2183,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>First National Financial Corporation (TSX:FN)</t>
+          <t>Firm Capital Mortgage Investment Corporation (TSX:FC)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2207,10 +2192,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0617</v>
+        <v>0.0604</v>
       </c>
       <c r="E15">
-        <v>0.05019999999999999</v>
+        <v>0.0553</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2219,34 +2204,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001610086798013118</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.001178396859415398</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>121.2</v>
+        <v>19.3</v>
       </c>
       <c r="L15">
-        <v>0.3282773564463706</v>
+        <v>0.8283261802575107</v>
       </c>
       <c r="M15">
-        <v>85.8</v>
+        <v>21.5</v>
       </c>
       <c r="N15">
-        <v>0.04893908281998631</v>
+        <v>0.06978253813696851</v>
       </c>
       <c r="O15">
-        <v>0.7079207920792079</v>
+        <v>1.113989637305699</v>
       </c>
       <c r="P15">
-        <v>85.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q15">
-        <v>0.04893908281998631</v>
+        <v>0.06978253813696851</v>
       </c>
       <c r="R15">
-        <v>0.7079207920792079</v>
+        <v>1.113989637305699</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2261,61 +2246,55 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0.3128549303045948</v>
+        <v>0.0815722738799662</v>
       </c>
       <c r="X15">
-        <v>0.1169148157990949</v>
+        <v>0.01955606790963631</v>
       </c>
       <c r="Y15">
-        <v>0.1959401145054999</v>
+        <v>0.06201620597032989</v>
       </c>
       <c r="Z15">
-        <v>0.01347711955877015</v>
+        <v>0.06699252443933296</v>
       </c>
       <c r="AA15">
-        <v>1.588139536202057e-05</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.02647525668563772</v>
+        <v>0.01789314815815813</v>
       </c>
       <c r="AC15">
-        <v>-0.0264593752902757</v>
+        <v>-0.01789314815815813</v>
       </c>
       <c r="AD15">
-        <v>27559.4</v>
+        <v>135.5</v>
       </c>
       <c r="AE15">
-        <v>24.37777977086778</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>27583.77777977087</v>
+        <v>135.5</v>
       </c>
       <c r="AG15">
-        <v>27583.77777977087</v>
+        <v>135.5</v>
       </c>
       <c r="AH15">
-        <v>0.9402392430072021</v>
+        <v>0.3054553651938683</v>
       </c>
       <c r="AI15">
-        <v>0.9848156371536386</v>
+        <v>0.3616226314384841</v>
       </c>
       <c r="AJ15">
-        <v>0.9402392430072021</v>
+        <v>0.3054553651938683</v>
       </c>
       <c r="AK15">
-        <v>0.9848156371536386</v>
+        <v>0.3616226314384841</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>5038.281535648995</v>
-      </c>
-      <c r="AP15">
-        <v>5042.738168148239</v>
       </c>
     </row>
     <row r="16">
@@ -2326,7 +2305,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Timbercreek Financial Corporation (TSX:TF)</t>
+          <t>ECN Capital Corp. (TSX:ECN)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2334,12 +2313,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D16">
-        <v>0.16</v>
-      </c>
-      <c r="E16">
-        <v>0.193</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2353,85 +2326,85 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>42.2</v>
+        <v>7.07</v>
       </c>
       <c r="L16">
-        <v>0.7947269303201507</v>
+        <v>0.03031732418524872</v>
       </c>
       <c r="M16">
-        <v>39.755</v>
+        <v>25.0642</v>
       </c>
       <c r="N16">
-        <v>0.06193332294749962</v>
+        <v>0.02017726614071808</v>
       </c>
       <c r="O16">
-        <v>0.9420616113744076</v>
+        <v>3.545148514851485</v>
       </c>
       <c r="P16">
-        <v>39.5</v>
+        <v>18.8342</v>
       </c>
       <c r="Q16">
-        <v>0.06153606480760243</v>
+        <v>0.01516197069715022</v>
       </c>
       <c r="R16">
-        <v>0.9360189573459715</v>
+        <v>2.663960396039604</v>
       </c>
       <c r="S16">
-        <v>0.2550000000000026</v>
+        <v>6.23</v>
       </c>
       <c r="T16">
-        <v>0.006414287511004969</v>
+        <v>0.2485616935709099</v>
       </c>
       <c r="U16">
-        <v>0.078</v>
+        <v>46.6</v>
       </c>
       <c r="V16">
-        <v>0.0001215142545567845</v>
+        <v>0.03751408790854935</v>
       </c>
       <c r="W16">
-        <v>0.07798928109406764</v>
+        <v>0.009559221200648999</v>
       </c>
       <c r="X16">
-        <v>0.03355483194822839</v>
+        <v>0.01975872417294108</v>
       </c>
       <c r="Y16">
-        <v>0.04443444914583924</v>
+        <v>-0.01019950297229208</v>
       </c>
       <c r="Z16">
-        <v>0.03693597000047996</v>
+        <v>0.2559824368825467</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.02669163986060688</v>
+        <v>0.01793933713517074</v>
       </c>
       <c r="AC16">
-        <v>-0.02669163986060688</v>
+        <v>-0.01793933713517074</v>
       </c>
       <c r="AD16">
-        <v>738.6</v>
+        <v>590.5</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>738.6</v>
+        <v>590.5</v>
       </c>
       <c r="AG16">
-        <v>738.522</v>
+        <v>543.9</v>
       </c>
       <c r="AH16">
-        <v>0.5350235421948569</v>
+        <v>0.3222022153107437</v>
       </c>
       <c r="AI16">
-        <v>0.5734026861268535</v>
+        <v>0.4094155168827567</v>
       </c>
       <c r="AJ16">
-        <v>0.5349972689510889</v>
+        <v>0.3045182240636022</v>
       </c>
       <c r="AK16">
-        <v>0.5733768522587348</v>
+        <v>0.3896969262735545</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2448,7 +2421,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Atrium Mortgage Investment Corporation (TSX:AI)</t>
+          <t>Timbercreek Financial Corp. (TSX:TF)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2457,10 +2430,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.132</v>
+        <v>0.131</v>
       </c>
       <c r="E17">
-        <v>0.13</v>
+        <v>0.121</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2475,85 +2448,85 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.2</v>
+        <v>35.8</v>
       </c>
       <c r="L17">
-        <v>0.8221574344023324</v>
+        <v>0.6897880539499036</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>56.09999999999999</v>
       </c>
       <c r="N17">
-        <v>0.04969749351771824</v>
+        <v>0.1021671826625387</v>
       </c>
       <c r="O17">
-        <v>0.8156028368794327</v>
+        <v>1.567039106145251</v>
       </c>
       <c r="P17">
-        <v>23</v>
+        <v>39.3</v>
       </c>
       <c r="Q17">
-        <v>0.04969749351771824</v>
+        <v>0.07157166272081587</v>
       </c>
       <c r="R17">
-        <v>0.8156028368794327</v>
+        <v>1.097765363128492</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.2994652406417112</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.0950646512474959</v>
       </c>
       <c r="W17">
-        <v>0.09447236180904522</v>
+        <v>0.0651501364877161</v>
       </c>
       <c r="X17">
-        <v>0.0299713803246517</v>
+        <v>0.0256409368178417</v>
       </c>
       <c r="Y17">
-        <v>0.06450098148439352</v>
+        <v>0.0395091996698744</v>
       </c>
       <c r="Z17">
-        <v>0.06844941129515066</v>
+        <v>0.04029434279849257</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.02679378844901985</v>
+        <v>0.01870900762956712</v>
       </c>
       <c r="AC17">
-        <v>-0.02679378844901985</v>
+        <v>-0.01870900762956712</v>
       </c>
       <c r="AD17">
-        <v>242.4</v>
+        <v>828</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>242.4</v>
+        <v>828</v>
       </c>
       <c r="AG17">
-        <v>242.4</v>
+        <v>775.8</v>
       </c>
       <c r="AH17">
-        <v>0.3437322745320476</v>
+        <v>0.6012635247984897</v>
       </c>
       <c r="AI17">
-        <v>0.4287230279448179</v>
+        <v>0.6115665854198981</v>
       </c>
       <c r="AJ17">
-        <v>0.3437322745320476</v>
+        <v>0.5855536266888066</v>
       </c>
       <c r="AK17">
-        <v>0.4287230279448179</v>
+        <v>0.5959898594146117</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2570,7 +2543,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Firm Capital Mortgage Investment Corporation (TSX:FC)</t>
+          <t>MCAN Mortgage Corporation (TSX:MKP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2579,13 +2552,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.07190000000000001</v>
+        <v>0.04389999999999999</v>
       </c>
       <c r="E18">
-        <v>0.0764</v>
-      </c>
-      <c r="F18">
-        <v>0.01</v>
+        <v>0.00532</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2600,28 +2570,28 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.7</v>
+        <v>23.5</v>
       </c>
       <c r="L18">
-        <v>0.8624999999999999</v>
+        <v>0.5292792792792793</v>
       </c>
       <c r="M18">
-        <v>20.2</v>
+        <v>24.6</v>
       </c>
       <c r="N18">
-        <v>0.06412698412698413</v>
+        <v>0.0803921568627451</v>
       </c>
       <c r="O18">
-        <v>0.9758454106280193</v>
+        <v>1.046808510638298</v>
       </c>
       <c r="P18">
-        <v>20.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q18">
-        <v>0.06412698412698413</v>
+        <v>0.0803921568627451</v>
       </c>
       <c r="R18">
-        <v>0.9758454106280193</v>
+        <v>1.046808510638298</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2630,55 +2600,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>21.6</v>
+        <v>53.5</v>
       </c>
       <c r="V18">
-        <v>0.06857142857142857</v>
+        <v>0.1748366013071895</v>
       </c>
       <c r="W18">
-        <v>0.09341155234657039</v>
+        <v>0.09498787388843977</v>
       </c>
       <c r="X18">
-        <v>0.02938727813214268</v>
+        <v>0.03093883759718028</v>
       </c>
       <c r="Y18">
-        <v>0.06402427421442772</v>
+        <v>0.06404903629125948</v>
       </c>
       <c r="Z18">
-        <v>0.05859375</v>
+        <v>0.05486900642609985</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.02681897769456218</v>
+        <v>0.01900649838853343</v>
       </c>
       <c r="AC18">
-        <v>-0.02681897769456218</v>
+        <v>-0.01900649838853343</v>
       </c>
       <c r="AD18">
-        <v>132.8</v>
+        <v>746</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>132.8</v>
+        <v>746</v>
       </c>
       <c r="AG18">
-        <v>111.2</v>
+        <v>692.5</v>
       </c>
       <c r="AH18">
-        <v>0.2965609647163913</v>
+        <v>0.7091254752851711</v>
       </c>
       <c r="AI18">
-        <v>0.3595018949648078</v>
+        <v>0.7491464149427596</v>
       </c>
       <c r="AJ18">
-        <v>0.2609103707179728</v>
+        <v>0.6935403104656985</v>
       </c>
       <c r="AK18">
-        <v>0.3197239792984474</v>
+        <v>0.7349039583996605</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2695,7 +2665,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCAN Mortgage Corporation (TSX:MKP)</t>
+          <t>Terra Firma Capital Corporation (TSXV:TII)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2704,10 +2674,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.0663</v>
+        <v>-0.026</v>
       </c>
       <c r="E19">
-        <v>0.0571</v>
+        <v>-0.102</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2716,34 +2686,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.008405458301813098</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0.008405458301813098</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>31.2</v>
+        <v>2.21</v>
       </c>
       <c r="L19">
-        <v>0.6046511627906976</v>
+        <v>0.343167701863354</v>
       </c>
       <c r="M19">
-        <v>23.2</v>
+        <v>0.827</v>
       </c>
       <c r="N19">
-        <v>0.07297892418999685</v>
+        <v>0.03348178137651821</v>
       </c>
       <c r="O19">
-        <v>0.7435897435897436</v>
+        <v>0.3742081447963801</v>
       </c>
       <c r="P19">
-        <v>23.2</v>
+        <v>0.827</v>
       </c>
       <c r="Q19">
-        <v>0.07297892418999685</v>
+        <v>0.03348178137651821</v>
       </c>
       <c r="R19">
-        <v>0.7435897435897436</v>
+        <v>0.3742081447963801</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2752,67 +2722,61 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>44.4</v>
+        <v>3.83</v>
       </c>
       <c r="V19">
-        <v>0.1396665618118905</v>
+        <v>0.1550607287449393</v>
       </c>
       <c r="W19">
-        <v>0.1333333333333333</v>
+        <v>0.05681233933161954</v>
       </c>
       <c r="X19">
-        <v>0.03797538940541537</v>
+        <v>0.03653956448995307</v>
       </c>
       <c r="Y19">
-        <v>0.09535794392791797</v>
+        <v>0.02027277484166647</v>
       </c>
       <c r="Z19">
-        <v>0.05711574719823965</v>
+        <v>0.04644789037143888</v>
       </c>
       <c r="AA19">
-        <v>-0.0004800840314517016</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.02662597174047469</v>
+        <v>0.0191849014917751</v>
       </c>
       <c r="AC19">
-        <v>-0.02710605577192639</v>
+        <v>-0.0191849014917751</v>
       </c>
       <c r="AD19">
-        <v>606.2</v>
+        <v>84.5</v>
       </c>
       <c r="AE19">
-        <v>5.42860824186778</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>611.6286082418678</v>
+        <v>84.5</v>
       </c>
       <c r="AG19">
-        <v>567.2286082418678</v>
+        <v>80.67</v>
       </c>
       <c r="AH19">
-        <v>0.6579986918301702</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="AI19">
-        <v>0.7120002784233909</v>
+        <v>0.676</v>
       </c>
       <c r="AJ19">
-        <v>0.6408431531419539</v>
+        <v>0.7655879282528234</v>
       </c>
       <c r="AK19">
-        <v>0.6963033246107833</v>
+        <v>0.6657588512007923</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>929.7546012269939</v>
-      </c>
-      <c r="AP19">
-        <v>869.9825279783249</v>
       </c>
     </row>
     <row r="20">
@@ -2823,7 +2787,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECN Capital Corp. (TSX:ECN)</t>
+          <t>Marble Financial Inc. (CNSX:MRBL)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2832,109 +2796,100 @@
         </is>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002733796804693034</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.002733796804693034</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-113.4</v>
+        <v>-2.57</v>
       </c>
       <c r="L20">
-        <v>-0.5069289226642826</v>
+        <v>-7.835365853658535</v>
       </c>
       <c r="M20">
-        <v>246.9604</v>
+        <v>-0</v>
       </c>
       <c r="N20">
-        <v>0.2788307553347634</v>
+        <v>-0</v>
       </c>
       <c r="O20">
-        <v>-2.177781305114638</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.2604</v>
+        <v>-0</v>
       </c>
       <c r="Q20">
-        <v>0.0138426103646833</v>
+        <v>-0</v>
       </c>
       <c r="R20">
-        <v>-0.1081164021164021</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>234.7</v>
-      </c>
-      <c r="T20">
-        <v>0.950354793724014</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>33.5</v>
+        <v>0.248</v>
       </c>
       <c r="V20">
-        <v>0.03782319069662414</v>
+        <v>0.02101694915254237</v>
       </c>
       <c r="W20">
-        <v>-0.1023650478425709</v>
+        <v>-75.58823529411764</v>
       </c>
       <c r="X20">
-        <v>0.0300545768339917</v>
+        <v>0.01932938124372873</v>
       </c>
       <c r="Y20">
-        <v>-0.1324196246765626</v>
+        <v>-75.60756467536136</v>
       </c>
       <c r="Z20">
-        <v>0.1548319492074016</v>
+        <v>0.1294396211523283</v>
       </c>
       <c r="AA20">
-        <v>0.0004232790880075887</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.02833371382158991</v>
+        <v>0.01922470088837766</v>
       </c>
       <c r="AC20">
-        <v>-0.02791043473358232</v>
+        <v>-0.01922470088837766</v>
       </c>
       <c r="AD20">
-        <v>455.3</v>
+        <v>4.72</v>
       </c>
       <c r="AE20">
-        <v>21.49224827395084</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>476.7922482739509</v>
+        <v>4.72</v>
       </c>
       <c r="AG20">
-        <v>443.2922482739509</v>
+        <v>4.472</v>
       </c>
       <c r="AH20">
-        <v>0.3499412557230814</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AI20">
-        <v>0.3502497343083376</v>
+        <v>2.017094017094017</v>
       </c>
       <c r="AJ20">
-        <v>0.3335551797609681</v>
+        <v>0.2748279252704031</v>
       </c>
       <c r="AK20">
-        <v>0.3338566322029698</v>
+        <v>2.137667304015296</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>92.72912423625255</v>
-      </c>
-      <c r="AP20">
-        <v>90.28355361994926</v>
       </c>
     </row>
     <row r="21">
@@ -2945,7 +2900,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Terra Firma Capital Corporation (TSXV:TII)</t>
+          <t>First National Financial Corporation (TSX:FN)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2954,10 +2909,13 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.075</v>
+        <v>0.101</v>
       </c>
       <c r="E21">
-        <v>0.117</v>
+        <v>0.152</v>
+      </c>
+      <c r="F21">
+        <v>0.09</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2966,103 +2924,97 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01573185387883638</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01181351109117081</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4.04</v>
+        <v>127.7</v>
       </c>
       <c r="L21">
-        <v>0.6292834890965732</v>
+        <v>0.3088270858524789</v>
       </c>
       <c r="M21">
-        <v>2.57128</v>
+        <v>1.69</v>
       </c>
       <c r="N21">
-        <v>0.1075849372384937</v>
+        <v>0.0008656899907796331</v>
       </c>
       <c r="O21">
-        <v>0.6364554455445544</v>
+        <v>0.01323414252153485</v>
       </c>
       <c r="P21">
-        <v>0.21128</v>
+        <v>1.69</v>
       </c>
       <c r="Q21">
-        <v>0.008840167364016736</v>
+        <v>0.0008656899907796331</v>
       </c>
       <c r="R21">
-        <v>0.05229702970297029</v>
+        <v>0.01323414252153485</v>
       </c>
       <c r="S21">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.9178308080022402</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.1652719665271967</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.1027989821882952</v>
+        <v>0.3630935456354848</v>
       </c>
       <c r="X21">
-        <v>0.05185420417207794</v>
+        <v>0.09930601613538856</v>
       </c>
       <c r="Y21">
-        <v>0.05094477801621723</v>
+        <v>0.2637875295000962</v>
       </c>
       <c r="Z21">
-        <v>0.04883614509503557</v>
+        <v>0.01478782070080323</v>
       </c>
       <c r="AA21">
-        <v>0.0005769263417302296</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.0301291127536494</v>
+        <v>0.01963010744192122</v>
       </c>
       <c r="AC21">
-        <v>-0.02955218641191917</v>
+        <v>-0.01963010744192122</v>
       </c>
       <c r="AD21">
-        <v>103.7</v>
+        <v>28187.8</v>
       </c>
       <c r="AE21">
-        <v>0.3100074904893523</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>104.0100074904894</v>
+        <v>28187.8</v>
       </c>
       <c r="AG21">
-        <v>100.0600074904894</v>
+        <v>28187.8</v>
       </c>
       <c r="AH21">
-        <v>0.8131498819451084</v>
+        <v>0.9352289316522893</v>
       </c>
       <c r="AI21">
-        <v>0.7278007280029791</v>
+        <v>0.9852635846959391</v>
       </c>
       <c r="AJ21">
-        <v>0.8071958812858762</v>
+        <v>0.9352289316522893</v>
       </c>
       <c r="AK21">
-        <v>0.7200633426659654</v>
+        <v>0.9852635846959391</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>636.1963190184049</v>
-      </c>
-      <c r="AP21">
-        <v>613.865076628769</v>
       </c>
     </row>
     <row r="22">
@@ -3073,7 +3025,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chesswood Group Limited (TSX:CHW)</t>
+          <t>goeasy Ltd. (TSX:GSY)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3082,103 +3034,106 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.047</v>
+        <v>0.128</v>
       </c>
       <c r="E22">
-        <v>0.0703</v>
+        <v>0.322</v>
+      </c>
+      <c r="F22">
+        <v>0.217</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.03091236494597839</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.520901077019271e-06</v>
+        <v>0.01617132094466017</v>
       </c>
       <c r="J22">
-        <v>1.822687869626661e-06</v>
+        <v>0.01186455464126362</v>
       </c>
       <c r="K22">
-        <v>10.5</v>
+        <v>70.8</v>
       </c>
       <c r="L22">
-        <v>0.2182952182952183</v>
+        <v>0.212484993997599</v>
       </c>
       <c r="M22">
-        <v>12.81</v>
+        <v>43.9</v>
       </c>
       <c r="N22">
-        <v>0.1009456264775414</v>
+        <v>0.03910216442504676</v>
       </c>
       <c r="O22">
-        <v>1.22</v>
+        <v>0.6200564971751412</v>
       </c>
       <c r="P22">
-        <v>10.6</v>
+        <v>16.2</v>
       </c>
       <c r="Q22">
-        <v>0.08353033884948778</v>
+        <v>0.01442950031174846</v>
       </c>
       <c r="R22">
-        <v>1.009523809523809</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="S22">
-        <v>2.209999999999999</v>
+        <v>27.7</v>
       </c>
       <c r="T22">
-        <v>0.1725214676034348</v>
+        <v>0.6309794988610479</v>
       </c>
       <c r="U22">
-        <v>5.81</v>
+        <v>29.6</v>
       </c>
       <c r="V22">
-        <v>0.04578408195429472</v>
+        <v>0.02636501291529349</v>
       </c>
       <c r="W22">
-        <v>0.09154315605928509</v>
+        <v>0.2776470588235294</v>
       </c>
       <c r="X22">
-        <v>0.04980890687638907</v>
+        <v>0.02058461777903413</v>
       </c>
       <c r="Y22">
-        <v>0.04173424918289602</v>
+        <v>0.2570624410444953</v>
       </c>
       <c r="Z22">
-        <v>0.09416612586282083</v>
+        <v>0.3713533731353635</v>
       </c>
       <c r="AA22">
-        <v>1.716354553399009e-07</v>
+        <v>0.00440594238678208</v>
       </c>
       <c r="AB22">
-        <v>0.03007722560592898</v>
+        <v>0.02489859036603368</v>
       </c>
       <c r="AC22">
-        <v>-0.03007705397047364</v>
+        <v>-0.02049264797925161</v>
       </c>
       <c r="AD22">
-        <v>503.9</v>
+        <v>654.9</v>
       </c>
       <c r="AE22">
-        <v>2.949393723290977</v>
+        <v>41.55857930619617</v>
       </c>
       <c r="AF22">
-        <v>506.849393723291</v>
+        <v>696.4585793061962</v>
       </c>
       <c r="AG22">
-        <v>501.039393723291</v>
+        <v>666.8585793061961</v>
       </c>
       <c r="AH22">
-        <v>0.7997631220529304</v>
+        <v>0.3828465463257285</v>
       </c>
       <c r="AI22">
-        <v>0.8081796758411945</v>
+        <v>0.6934361827100685</v>
       </c>
       <c r="AJ22">
-        <v>0.7979104332863053</v>
+        <v>0.3726385864187436</v>
       </c>
       <c r="AK22">
-        <v>0.8063860086528254</v>
+        <v>0.6841269145646772</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3187,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>854.0677966101695</v>
+        <v>47.8029197080292</v>
       </c>
       <c r="AP22">
-        <v>849.2193113954085</v>
+        <v>48.67580870848147</v>
       </c>
     </row>
     <row r="23">
@@ -3210,22 +3165,22 @@
         </is>
       </c>
       <c r="G23">
-        <v>0.002149532710280374</v>
+        <v>0.007419354838709677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02416950733713015</v>
+        <v>0.02481309849324667</v>
       </c>
       <c r="J23">
-        <v>0.02416950733713015</v>
+        <v>0.01871528912628188</v>
       </c>
       <c r="K23">
-        <v>-3.07</v>
+        <v>0.488</v>
       </c>
       <c r="L23">
-        <v>-0.2869158878504673</v>
+        <v>0.03935483870967742</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3234,7 +3189,7 @@
         <v>-0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3243,61 +3198,61 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1.61</v>
+        <v>4.15</v>
       </c>
       <c r="V23">
-        <v>0.1012578616352201</v>
+        <v>0.1700819672131148</v>
       </c>
       <c r="W23">
-        <v>-0.107719298245614</v>
+        <v>0.01891472868217054</v>
       </c>
       <c r="X23">
-        <v>0.05879901984471493</v>
+        <v>0.03681690838180162</v>
       </c>
       <c r="Y23">
-        <v>-0.166518318090329</v>
+        <v>-0.01790217969963108</v>
       </c>
       <c r="Z23">
-        <v>0.1048383060920543</v>
+        <v>0.1256948850473317</v>
       </c>
       <c r="AA23">
-        <v>0.002533890208304204</v>
+        <v>0.002352416115355577</v>
       </c>
       <c r="AB23">
-        <v>0.03263077901203273</v>
+        <v>0.02295739777955267</v>
       </c>
       <c r="AC23">
-        <v>-0.03009688880372853</v>
+        <v>-0.02060498166419709</v>
       </c>
       <c r="AD23">
-        <v>86.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="AE23">
-        <v>1.611931357463537</v>
+        <v>1.061587893418707</v>
       </c>
       <c r="AF23">
-        <v>88.51193135746354</v>
+        <v>84.6615878934187</v>
       </c>
       <c r="AG23">
-        <v>86.90193135746354</v>
+        <v>80.51158789341869</v>
       </c>
       <c r="AH23">
-        <v>0.8477185529155195</v>
+        <v>0.7762732005713588</v>
       </c>
       <c r="AI23">
-        <v>0.7743017750323795</v>
+        <v>0.7671291208239983</v>
       </c>
       <c r="AJ23">
-        <v>0.8453336450974601</v>
+        <v>0.7674232132985315</v>
       </c>
       <c r="AK23">
-        <v>0.7710775699294046</v>
+        <v>0.758030168744022</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3306,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>149.5697074010327</v>
+        <v>160.7692307692307</v>
       </c>
       <c r="AP23">
-        <v>149.5730315963228</v>
+        <v>154.8299767181129</v>
       </c>
     </row>
     <row r="24">
@@ -3320,7 +3275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Element Fleet Management Corp. (TSX:EFN)</t>
+          <t>IOU Financial Inc. (TSXV:IOU)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3329,10 +3284,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.4320000000000001</v>
-      </c>
-      <c r="E24">
-        <v>1.07</v>
+        <v>-0.0136</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3341,103 +3293,97 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.001435077528899916</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0.001211787493808845</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>193.2</v>
+        <v>-2.48</v>
       </c>
       <c r="L24">
-        <v>0.1765189584285062</v>
+        <v>-0.5199161425576521</v>
       </c>
       <c r="M24">
-        <v>21.6</v>
+        <v>0.053</v>
       </c>
       <c r="N24">
-        <v>0.005895679231378115</v>
+        <v>0.005145631067961165</v>
       </c>
       <c r="O24">
-        <v>0.1118012422360249</v>
+        <v>-0.02137096774193548</v>
       </c>
       <c r="P24">
-        <v>21.6</v>
+        <v>-0</v>
       </c>
       <c r="Q24">
-        <v>0.005895679231378115</v>
+        <v>-0</v>
       </c>
       <c r="R24">
-        <v>0.1118012422360249</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>31.1</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>0.008488686300734231</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="W24">
-        <v>0.09008672946003916</v>
+        <v>-0.2455445544554455</v>
       </c>
       <c r="X24">
-        <v>0.04241937091584214</v>
+        <v>0.02352174718385462</v>
       </c>
       <c r="Y24">
-        <v>0.04766735854419703</v>
+        <v>-0.2690663016393002</v>
       </c>
       <c r="Z24">
-        <v>0.09082118184549443</v>
+        <v>0.1157205240174672</v>
       </c>
       <c r="AA24">
-        <v>-0.000110055972333309</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.03012802229767592</v>
+        <v>0.0210973225451683</v>
       </c>
       <c r="AC24">
-        <v>-0.03023807827000922</v>
+        <v>-0.0210973225451683</v>
       </c>
       <c r="AD24">
-        <v>9837.700000000001</v>
+        <v>11.7</v>
       </c>
       <c r="AE24">
-        <v>59.35346177690479</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>9897.053461776906</v>
+        <v>11.7</v>
       </c>
       <c r="AG24">
-        <v>9865.953461776906</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="AH24">
-        <v>0.7298306461859433</v>
+        <v>0.5318181818181817</v>
       </c>
       <c r="AI24">
-        <v>0.7666278700280986</v>
+        <v>0.6034038164002062</v>
       </c>
       <c r="AJ24">
-        <v>0.7292096201613406</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="AK24">
-        <v>0.7660643160115034</v>
+        <v>0.5003248862897985</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>955.1165048543689</v>
-      </c>
-      <c r="AP24">
-        <v>957.8595593958161</v>
       </c>
     </row>
     <row r="25">
@@ -3448,7 +3394,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Equitable Group Inc. (TSX:EQB)</t>
+          <t>Mogo Inc. (TSX:MOGO)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3457,115 +3403,103 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.162</v>
-      </c>
-      <c r="E25">
-        <v>0.124</v>
+        <v>0.0355</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.6068750000000001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-0.00120543185243338</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0.0008926142339961462</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>144.1</v>
+        <v>-12.6</v>
       </c>
       <c r="L25">
-        <v>0.4316956261234272</v>
+        <v>-0.7875</v>
       </c>
       <c r="M25">
-        <v>18.7</v>
+        <v>-0</v>
       </c>
       <c r="N25">
-        <v>0.0131625255155909</v>
+        <v>-0</v>
       </c>
       <c r="O25">
-        <v>0.1297709923664122</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>18.7</v>
+        <v>-0</v>
       </c>
       <c r="Q25">
-        <v>0.0131625255155909</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>0.1297709923664122</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
-        <v>282.4</v>
+        <v>7.4</v>
       </c>
       <c r="V25">
-        <v>0.1987752516365172</v>
+        <v>0.06485539000876425</v>
       </c>
       <c r="W25">
-        <v>0.1568862275449102</v>
+        <v>-2.065573770491803</v>
       </c>
       <c r="X25">
-        <v>0.05977746541888249</v>
+        <v>0.02060553325167096</v>
       </c>
       <c r="Y25">
-        <v>0.09710876212602768</v>
+        <v>-2.086179303743474</v>
       </c>
       <c r="Z25">
-        <v>0.04697430940248214</v>
+        <v>0.1598401598401598</v>
       </c>
       <c r="AA25">
-        <v>-4.192993720479456e-05</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.03027809523197411</v>
+        <v>0.02115490935788266</v>
       </c>
       <c r="AC25">
-        <v>-0.03032002516917891</v>
+        <v>-0.02115490935788266</v>
       </c>
       <c r="AD25">
-        <v>8140.5</v>
+        <v>71.2</v>
       </c>
       <c r="AE25">
-        <v>11.41186576171131</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>8151.911865761711</v>
+        <v>71.2</v>
       </c>
       <c r="AG25">
-        <v>7869.511865761711</v>
+        <v>63.8</v>
       </c>
       <c r="AH25">
-        <v>0.8515870046834962</v>
+        <v>0.3842417701025364</v>
       </c>
       <c r="AI25">
-        <v>0.8843364003901792</v>
+        <v>1.036239266482317</v>
       </c>
       <c r="AJ25">
-        <v>0.8470756081208578</v>
+        <v>0.358628442945475</v>
       </c>
       <c r="AK25">
-        <v>0.8806810228421444</v>
+        <v>1.040613276790083</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>4330.053191489362</v>
-      </c>
-      <c r="AP25">
-        <v>4185.910566894528</v>
       </c>
     </row>
     <row r="26">
@@ -3576,7 +3510,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>goeasy Ltd. (TSX:GSY)</t>
+          <t>Element Fleet Management Corp. (TSX:EFN)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3585,115 +3519,112 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.117</v>
+        <v>0.261</v>
       </c>
       <c r="E26">
-        <v>0.341</v>
+        <v>-0.0476</v>
+      </c>
+      <c r="F26">
+        <v>0.14</v>
       </c>
       <c r="G26">
-        <v>0.03138966480446927</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.004141311325572022</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.00297489547418352</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>55.6</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L26">
-        <v>0.1941340782122905</v>
+        <v>0.06400371574547144</v>
       </c>
       <c r="M26">
-        <v>38.3</v>
+        <v>59.44050000000001</v>
       </c>
       <c r="N26">
-        <v>0.0493048403707518</v>
+        <v>0.01285533543838401</v>
       </c>
       <c r="O26">
-        <v>0.6888489208633093</v>
+        <v>0.8627068214804064</v>
       </c>
       <c r="P26">
-        <v>11.6</v>
+        <v>59.44050000000001</v>
       </c>
       <c r="Q26">
-        <v>0.01493305870236869</v>
+        <v>0.01285533543838401</v>
       </c>
       <c r="R26">
-        <v>0.2086330935251798</v>
+        <v>0.8627068214804064</v>
       </c>
       <c r="S26">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.6971279373368146</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>22.5</v>
+        <v>56.8</v>
       </c>
       <c r="V26">
-        <v>0.02896498455200824</v>
+        <v>0.01228426835070721</v>
       </c>
       <c r="W26">
-        <v>0.2860082304526749</v>
+        <v>0.02757323515287338</v>
       </c>
       <c r="X26">
-        <v>0.03220851374716179</v>
+        <v>0.02728679481145566</v>
       </c>
       <c r="Y26">
-        <v>0.2537997167055131</v>
+        <v>0.0002864403414177229</v>
       </c>
       <c r="Z26">
-        <v>0.4325175631071539</v>
+        <v>0.0907573368855016</v>
       </c>
       <c r="AA26">
-        <v>0.001286694540992357</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.03392204522763573</v>
+        <v>0.02221968281472882</v>
       </c>
       <c r="AC26">
-        <v>-0.03263535068664337</v>
+        <v>-0.02221968281472882</v>
       </c>
       <c r="AD26">
-        <v>639.3</v>
+        <v>8308.200000000001</v>
       </c>
       <c r="AE26">
-        <v>71.56964218178086</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>710.8696421817808</v>
+        <v>8308.200000000001</v>
       </c>
       <c r="AG26">
-        <v>688.3696421817808</v>
+        <v>8251.400000000001</v>
       </c>
       <c r="AH26">
-        <v>0.4778410623068414</v>
+        <v>0.6424528301886793</v>
       </c>
       <c r="AI26">
-        <v>0.7359892175263048</v>
+        <v>0.7477320181438548</v>
       </c>
       <c r="AJ26">
-        <v>0.4698224849627182</v>
+        <v>0.6408754815459178</v>
       </c>
       <c r="AK26">
-        <v>0.7296923829239957</v>
+        <v>0.7464358083658996</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>41.24516129032258</v>
-      </c>
-      <c r="AP26">
-        <v>44.41094465688909</v>
       </c>
     </row>
     <row r="27">
@@ -3704,7 +3635,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rifco Inc. (TSXV:RFC)</t>
+          <t>DelphX Capital Markets Inc. (TSXV:DELX)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3712,29 +3643,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D27">
-        <v>-0.0549</v>
-      </c>
-      <c r="E27">
-        <v>-0.662</v>
-      </c>
       <c r="G27">
-        <v>0</v>
+        <v>-1.377777777777778</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I27">
-        <v>-0.01296145568967667</v>
+        <v>-0</v>
       </c>
       <c r="J27">
-        <v>-0.006480727844838337</v>
+        <v>-0</v>
       </c>
       <c r="K27">
-        <v>0.021</v>
+        <v>-2.39</v>
       </c>
       <c r="L27">
-        <v>0.002258064516129032</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="M27">
         <v>-0</v>
@@ -3743,7 +3668,7 @@
         <v>-0</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>-0</v>
@@ -3752,73 +3677,67 @@
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>2.33</v>
+        <v>0.219</v>
       </c>
       <c r="V27">
-        <v>0.1652482269503546</v>
+        <v>0.02406593406593407</v>
       </c>
       <c r="W27">
-        <v>0.0009502262443438915</v>
+        <v>1.562091503267974</v>
       </c>
       <c r="X27">
-        <v>0.08695951580998953</v>
+        <v>0.01753772189433334</v>
       </c>
       <c r="Y27">
-        <v>-0.08600928956564564</v>
+        <v>1.544553781373641</v>
       </c>
       <c r="Z27">
-        <v>0.05136058392600981</v>
+        <v>0.2422611036339165</v>
       </c>
       <c r="AA27">
-        <v>-0.0003328539663764481</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.033066083097823</v>
+        <v>0.0225199111144395</v>
       </c>
       <c r="AC27">
-        <v>-0.03339893706419945</v>
+        <v>-0.0225199111144395</v>
       </c>
       <c r="AD27">
-        <v>146.7</v>
+        <v>0.778</v>
       </c>
       <c r="AE27">
-        <v>1.252707689569965</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>147.95270768957</v>
+        <v>0.778</v>
       </c>
       <c r="AG27">
-        <v>145.6227076895699</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AH27">
-        <v>0.912991271784177</v>
+        <v>0.07876088276979146</v>
       </c>
       <c r="AI27">
-        <v>0.8715778953001087</v>
+        <v>-0.3965341488277268</v>
       </c>
       <c r="AJ27">
-        <v>0.91172200744678</v>
+        <v>0.0578734858681023</v>
       </c>
       <c r="AK27">
-        <v>0.8697906616083351</v>
+        <v>-0.2563044475011463</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>1128.461538461538</v>
-      </c>
-      <c r="AP27">
-        <v>1120.174674535153</v>
       </c>
     </row>
     <row r="28">
@@ -3829,7 +3748,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IOU Financial Inc. (TSXV:IOU)</t>
+          <t>Chesswood Group Limited (TSX:CHW)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3838,7 +3757,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.225</v>
+        <v>0.0806</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3847,100 +3766,97 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.005220510808599083</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.005220510808599083</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1.33</v>
+        <v>-4.04</v>
       </c>
       <c r="L28">
-        <v>0.1568396226415094</v>
+        <v>-0.09395348837209302</v>
       </c>
       <c r="M28">
-        <v>-0</v>
+        <v>7.68</v>
       </c>
       <c r="N28">
-        <v>-0</v>
+        <v>0.06047244094488189</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>-1.900990099009901</v>
       </c>
       <c r="P28">
-        <v>-0</v>
+        <v>7.68</v>
       </c>
       <c r="Q28">
-        <v>-0</v>
+        <v>0.06047244094488189</v>
       </c>
       <c r="R28">
-        <v>-0</v>
+        <v>-1.900990099009901</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
       <c r="U28">
-        <v>3.38</v>
+        <v>7.24</v>
       </c>
       <c r="V28">
-        <v>0.2397163120567376</v>
+        <v>0.05700787401574803</v>
       </c>
       <c r="W28">
-        <v>0.1633906633906634</v>
+        <v>-0.03666061705989111</v>
       </c>
       <c r="X28">
-        <v>0.0414115766072185</v>
+        <v>0.03900784161469278</v>
       </c>
       <c r="Y28">
-        <v>0.1219790867834449</v>
+        <v>-0.07566845867458388</v>
       </c>
       <c r="Z28">
-        <v>0.3428527484961555</v>
+        <v>0.07444727228657005</v>
       </c>
       <c r="AA28">
-        <v>0.001789866479282083</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.03633497165499459</v>
+        <v>0.02309226988656283</v>
       </c>
       <c r="AC28">
-        <v>-0.03454510517571251</v>
+        <v>-0.02309226988656283</v>
       </c>
       <c r="AD28">
-        <v>34.5</v>
+        <v>489.5</v>
       </c>
       <c r="AE28">
-        <v>1.103650341715399</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>35.6036503417154</v>
+        <v>489.5</v>
       </c>
       <c r="AG28">
-        <v>32.2236503417154</v>
+        <v>482.26</v>
       </c>
       <c r="AH28">
-        <v>0.7163186224138126</v>
+        <v>0.7939983779399837</v>
       </c>
       <c r="AI28">
-        <v>0.7790110872001539</v>
+        <v>0.8165137614678899</v>
       </c>
       <c r="AJ28">
-        <v>0.6956198422190693</v>
+        <v>0.7915504054098415</v>
       </c>
       <c r="AK28">
-        <v>0.7613627388362305</v>
+        <v>0.814270759463749</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>130.188679245283</v>
-      </c>
-      <c r="AP28">
-        <v>121.5986805347751</v>
       </c>
     </row>
     <row r="29">
@@ -3951,7 +3867,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Home Capital Group Inc. (TSX:HCG)</t>
+          <t>Accord Financial Corp. (TSX:ACD)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3960,10 +3876,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.04849999999999999</v>
-      </c>
-      <c r="E29">
-        <v>-0.14</v>
+        <v>-0.0265</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3972,91 +3885,91 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.003200668578749758</v>
+        <v>0.0008429635814825666</v>
       </c>
       <c r="J29">
-        <v>0.002353636980902751</v>
+        <v>0.0008429635814825666</v>
       </c>
       <c r="K29">
-        <v>101.6</v>
+        <v>-1.22</v>
       </c>
       <c r="L29">
-        <v>0.32</v>
+        <v>-0.06387434554973821</v>
       </c>
       <c r="M29">
-        <v>298.3</v>
+        <v>1.998</v>
       </c>
       <c r="N29">
-        <v>0.2045953360768176</v>
+        <v>0.0444</v>
       </c>
       <c r="O29">
-        <v>2.936023622047244</v>
+        <v>-1.637704918032787</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>1.8</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0.04</v>
       </c>
       <c r="R29">
-        <v>-0</v>
+        <v>-1.475409836065574</v>
       </c>
       <c r="S29">
-        <v>298.3</v>
+        <v>0.198</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0.09909909909909907</v>
       </c>
       <c r="U29">
-        <v>437.1</v>
+        <v>8.51</v>
       </c>
       <c r="V29">
-        <v>0.2997942386831276</v>
+        <v>0.1891111111111111</v>
       </c>
       <c r="W29">
-        <v>0.0687136480454484</v>
+        <v>-0.01728045325779037</v>
       </c>
       <c r="X29">
-        <v>0.03709844155079337</v>
+        <v>0.04246065669371968</v>
       </c>
       <c r="Y29">
-        <v>0.03161520649465503</v>
+        <v>-0.05974110995151005</v>
       </c>
       <c r="Z29">
-        <v>0.0924101724158691</v>
+        <v>0.0683462190641021</v>
       </c>
       <c r="AA29">
-        <v>0.0002174999992095888</v>
+        <v>5.761337360306757e-05</v>
       </c>
       <c r="AB29">
-        <v>0.03626514275278248</v>
+        <v>0.02326625865151919</v>
       </c>
       <c r="AC29">
-        <v>-0.03604764275357289</v>
+        <v>-0.02320864527791612</v>
       </c>
       <c r="AD29">
-        <v>2543.7</v>
+        <v>200.7</v>
       </c>
       <c r="AE29">
-        <v>37.76893863123476</v>
+        <v>0.0194969779684149</v>
       </c>
       <c r="AF29">
-        <v>2581.468938631235</v>
+        <v>200.7194969779684</v>
       </c>
       <c r="AG29">
-        <v>2144.368938631235</v>
+        <v>192.2094969779684</v>
       </c>
       <c r="AH29">
-        <v>0.6390614652197226</v>
+        <v>0.8168643491727693</v>
       </c>
       <c r="AI29">
-        <v>0.6754290733602191</v>
+        <v>0.7389730826069866</v>
       </c>
       <c r="AJ29">
-        <v>0.5952663303403939</v>
+        <v>0.8102942733183254</v>
       </c>
       <c r="AK29">
-        <v>0.6335160910243011</v>
+        <v>0.7305304414536703</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -4065,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>296.8144690781797</v>
+        <v>10035</v>
       </c>
       <c r="AP29">
-        <v>250.2180791868419</v>
+        <v>9610.474848898421</v>
       </c>
     </row>
     <row r="30">
@@ -4079,7 +3992,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FinCanna Capital Corp. (CNSX:CALI)</t>
+          <t>Equitable Group Inc. (TSX:EQB)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4087,6 +4000,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D30">
+        <v>0.15</v>
+      </c>
+      <c r="E30">
+        <v>0.114</v>
+      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -4094,106 +4013,97 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.04993869317377575</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.04993869317377575</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-1.28</v>
+        <v>156.3</v>
       </c>
       <c r="L30">
-        <v>-2.180579216354344</v>
+        <v>0.4224324324324324</v>
       </c>
       <c r="M30">
-        <v>0.207</v>
+        <v>18.4</v>
       </c>
       <c r="N30">
-        <v>0.02267250821467688</v>
+        <v>0.01379931003449827</v>
       </c>
       <c r="O30">
-        <v>-0.16171875</v>
+        <v>0.1177223288547665</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>18.4</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.01379931003449827</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.1177223288547665</v>
       </c>
       <c r="S30">
-        <v>0.207</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>4.11</v>
+        <v>861.6</v>
       </c>
       <c r="V30">
-        <v>0.4501642935377875</v>
+        <v>0.6461676916154192</v>
       </c>
       <c r="W30">
-        <v>-0.0847682119205298</v>
+        <v>0.1545382637927625</v>
       </c>
       <c r="X30">
-        <v>0.02930860036172875</v>
+        <v>0.05573723113725647</v>
       </c>
       <c r="Y30">
-        <v>-0.1140768122822585</v>
+        <v>0.09880103265550606</v>
       </c>
       <c r="Z30">
-        <v>0.04379476020863544</v>
+        <v>0.04151286337780071</v>
       </c>
       <c r="AA30">
-        <v>0.002187053092678129</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.04353667893228025</v>
+        <v>0.02368310009129497</v>
       </c>
       <c r="AC30">
-        <v>-0.04134962583960212</v>
+        <v>-0.02368310009129497</v>
       </c>
       <c r="AD30">
-        <v>3.47</v>
+        <v>9055.1</v>
       </c>
       <c r="AE30">
-        <v>0.2534299355349682</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>3.723429935534968</v>
+        <v>9055.1</v>
       </c>
       <c r="AG30">
-        <v>-0.3865700644650318</v>
+        <v>8193.5</v>
       </c>
       <c r="AH30">
-        <v>0.2896837617826091</v>
+        <v>0.8716465322231314</v>
       </c>
       <c r="AI30">
-        <v>0.206588310263512</v>
+        <v>0.8845981008948459</v>
       </c>
       <c r="AJ30">
-        <v>-0.04421263363636475</v>
+        <v>0.8600384175335104</v>
       </c>
       <c r="AK30">
-        <v>-0.02778395163925252</v>
+        <v>0.8739919784955413</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="AN30">
-        <v>43.375</v>
-      </c>
-      <c r="AP30">
-        <v>-4.832125805812898</v>
-      </c>
-      <c r="AQ30">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4204,7 +4114,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Goldmoney Inc. (TSX:XAU)</t>
+          <t>Rifco Inc. (TSXV:RFC)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4212,116 +4122,107 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D31">
+        <v>-0.0562</v>
+      </c>
+      <c r="E31">
+        <v>-0.289</v>
+      </c>
       <c r="G31">
-        <v>-0.03580974842767296</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-0.0404874213836478</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>-0.02149538238536883</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>-0.0212435793345688</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>21</v>
+        <v>0.801</v>
       </c>
       <c r="L31">
-        <v>0.08254716981132075</v>
+        <v>0.081985670419652</v>
       </c>
       <c r="M31">
-        <v>0.491</v>
+        <v>-0</v>
       </c>
       <c r="N31">
-        <v>0.004435411020776874</v>
+        <v>-0</v>
       </c>
       <c r="O31">
-        <v>0.02338095238095238</v>
+        <v>-0</v>
       </c>
       <c r="P31">
-        <v>0.189</v>
+        <v>-0</v>
       </c>
       <c r="Q31">
-        <v>0.001707317073170732</v>
+        <v>-0</v>
       </c>
       <c r="R31">
-        <v>0.008999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="S31">
-        <v>0.302</v>
-      </c>
-      <c r="T31">
-        <v>0.615071283095723</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>27.4</v>
+        <v>8.23</v>
       </c>
       <c r="V31">
-        <v>0.2475158084914182</v>
+        <v>0.5379084967320261</v>
       </c>
       <c r="W31">
-        <v>0.170316301703163</v>
+        <v>0.03674311926605504</v>
       </c>
       <c r="X31">
-        <v>0.02729941353389127</v>
+        <v>0.06456083595242965</v>
       </c>
       <c r="Y31">
-        <v>0.1430168881692718</v>
+        <v>-0.0278177166863746</v>
       </c>
       <c r="Z31">
-        <v>3.48846171569413</v>
+        <v>0.05879520972498044</v>
       </c>
       <c r="AA31">
-        <v>-0.07410741321295422</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.02733304739862579</v>
+        <v>0.02384506361142179</v>
       </c>
       <c r="AC31">
-        <v>-0.10144046061158</v>
+        <v>-0.02384506361142179</v>
       </c>
       <c r="AD31">
-        <v>5.44</v>
+        <v>127.6</v>
       </c>
       <c r="AE31">
-        <v>0.797126394189154</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>6.237126394189154</v>
+        <v>127.6</v>
       </c>
       <c r="AG31">
-        <v>-21.16287360581084</v>
+        <v>119.37</v>
       </c>
       <c r="AH31">
-        <v>0.05333743513727296</v>
+        <v>0.8929321203638908</v>
       </c>
       <c r="AI31">
-        <v>0.04118624370852089</v>
+        <v>0.8500999333777481</v>
       </c>
       <c r="AJ31">
-        <v>-0.2363586420301321</v>
+        <v>0.8863889507685453</v>
       </c>
       <c r="AK31">
-        <v>-0.1706172516328327</v>
+        <v>0.8414041023472192</v>
       </c>
       <c r="AL31">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>-1.446</v>
-      </c>
-      <c r="AN31">
-        <v>-1.190632523528124</v>
-      </c>
-      <c r="AO31">
-        <v>-164.4117647058823</v>
-      </c>
-      <c r="AP31">
-        <v>4.631839265881122</v>
-      </c>
-      <c r="AQ31">
-        <v>3.865836791147995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4332,7 +4233,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Findev Inc. (TSXV:FDI)</t>
+          <t>FinCanna Capital Corp. (CNSX:CALI)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4347,97 +4248,97 @@
         <v>-0</v>
       </c>
       <c r="I32">
-        <v>1.031096563011457</v>
+        <v>-0</v>
       </c>
       <c r="J32">
-        <v>1.031096563011457</v>
+        <v>-0</v>
       </c>
       <c r="K32">
-        <v>1.22</v>
+        <v>-8.67</v>
       </c>
       <c r="L32">
-        <v>-0.1996726677577741</v>
+        <v>22.23076923076923</v>
       </c>
       <c r="M32">
-        <v>0.649</v>
+        <v>-0</v>
       </c>
       <c r="N32">
-        <v>0.07653301886792453</v>
+        <v>-0</v>
       </c>
       <c r="O32">
-        <v>0.5319672131147541</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0.649</v>
+        <v>-0</v>
       </c>
       <c r="Q32">
-        <v>0.07653301886792453</v>
+        <v>-0</v>
       </c>
       <c r="R32">
-        <v>0.5319672131147541</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
-        <v>0.271</v>
+        <v>1.41</v>
       </c>
       <c r="V32">
-        <v>0.03195754716981132</v>
+        <v>0.2238095238095238</v>
       </c>
       <c r="W32">
-        <v>0.09606299212598425</v>
+        <v>-0.6062937062937063</v>
       </c>
       <c r="X32">
-        <v>0.02697733977922131</v>
+        <v>0.02140914731822684</v>
       </c>
       <c r="Y32">
-        <v>0.06908565234676295</v>
+        <v>-0.6277028536119331</v>
       </c>
       <c r="Z32">
-        <v>-0.4911970415628266</v>
+        <v>-0.02855051244509517</v>
       </c>
       <c r="AA32">
-        <v>-0.5064715813168261</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.02697733977922131</v>
+        <v>0.02516750230259254</v>
       </c>
       <c r="AC32">
-        <v>-0.5334489210960475</v>
+        <v>-0.02516750230259254</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AG32">
-        <v>-0.271</v>
+        <v>3.41</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>0.4334532374100719</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>0.4504672897196262</v>
       </c>
       <c r="AJ32">
-        <v>-0.03301254720428798</v>
+        <v>0.3511843460350154</v>
       </c>
       <c r="AK32">
-        <v>-0.02145854778683982</v>
+        <v>0.3670613562970937</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>-0.029</v>
+      </c>
+      <c r="AQ32">
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -4448,7 +4349,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Midpoint Holdings Ltd. (TSXV:MPT)</t>
+          <t>Lendified Holdings Inc. (TSXV:LHI)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4456,26 +4357,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D33">
-        <v>0.403</v>
-      </c>
       <c r="G33">
-        <v>-1.24671052631579</v>
+        <v>-0.4356249999999999</v>
       </c>
       <c r="H33">
-        <v>-1.315789473684211</v>
+        <v>-0</v>
       </c>
       <c r="I33">
-        <v>-1.703630221188646</v>
+        <v>-0</v>
       </c>
       <c r="J33">
-        <v>-1.703630221188646</v>
+        <v>-0</v>
       </c>
       <c r="K33">
-        <v>-0.522</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="L33">
-        <v>-1.717105263157895</v>
+        <v>5.543749999999999</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4499,70 +4397,61 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.509</v>
+        <v>0.853</v>
       </c>
       <c r="V33">
-        <v>0.2557788944723618</v>
+        <v>0.1904017857142857</v>
       </c>
       <c r="W33">
-        <v>-0.5168316831683168</v>
+        <v>0.4900552486187845</v>
       </c>
       <c r="X33">
-        <v>0.02699031770930211</v>
+        <v>0.0391764532557462</v>
       </c>
       <c r="Y33">
-        <v>-0.543822000877619</v>
+        <v>0.4508787953630383</v>
       </c>
       <c r="Z33">
-        <v>2.226813622054957</v>
+        <v>-0.1356622011192132</v>
       </c>
       <c r="AA33">
-        <v>-3.793666983487376</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.02710682523737036</v>
+        <v>0.02554500596826979</v>
       </c>
       <c r="AC33">
-        <v>-3.820773808724746</v>
+        <v>-0.02554500596826979</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="AE33">
-        <v>0.004517936206740761</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.004517936206740761</v>
+        <v>17.4</v>
       </c>
       <c r="AG33">
-        <v>-0.5044820637932592</v>
+        <v>16.547</v>
       </c>
       <c r="AH33">
-        <v>0.002265177025849747</v>
+        <v>0.7952468007312614</v>
       </c>
       <c r="AI33">
-        <v>0.01212810382433072</v>
+        <v>3</v>
       </c>
       <c r="AJ33">
-        <v>-0.3396001162271056</v>
+        <v>0.78694060018072</v>
       </c>
       <c r="AK33">
-        <v>3.696324995183545</v>
+        <v>3.344855467960381</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>-0.005</v>
-      </c>
-      <c r="AN33">
-        <v>-0</v>
-      </c>
-      <c r="AP33">
-        <v>1.082579536037037</v>
-      </c>
-      <c r="AQ33">
-        <v>104.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4573,7 +4462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Trichome Financial Corp. (CNSX:TFC)</t>
+          <t>Home Capital Group Inc. (TSX:HCG)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4581,6 +4470,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D34">
+        <v>-0.04480000000000001</v>
+      </c>
+      <c r="E34">
+        <v>-0.128</v>
+      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -4588,25 +4483,25 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>-2.803465272256038</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-2.803465272256038</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-3.19</v>
+        <v>118.3</v>
       </c>
       <c r="L34">
-        <v>-6.007532956685498</v>
+        <v>0.3324901630129286</v>
       </c>
       <c r="M34">
-        <v>-0</v>
+        <v>136.2</v>
       </c>
       <c r="N34">
-        <v>-0</v>
+        <v>0.1127763517429825</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.151310228233305</v>
       </c>
       <c r="P34">
         <v>-0</v>
@@ -4615,73 +4510,296 @@
         <v>-0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>136.2</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>4.99</v>
+        <v>390.2</v>
       </c>
       <c r="V34">
-        <v>0.2756906077348066</v>
+        <v>0.3230934834809969</v>
+      </c>
+      <c r="W34">
+        <v>0.09536477226924626</v>
       </c>
       <c r="X34">
-        <v>0.02701466981516353</v>
+        <v>0.02850503174347195</v>
+      </c>
+      <c r="Y34">
+        <v>0.06685974052577431</v>
       </c>
       <c r="Z34">
-        <v>9.123664649651532</v>
+        <v>0.106300976965134</v>
       </c>
       <c r="AA34">
-        <v>-25.57787700100812</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.02702060850826717</v>
+        <v>0.03074081534244804</v>
       </c>
       <c r="AC34">
-        <v>-25.60489760951639</v>
+        <v>-0.03074081534244804</v>
       </c>
       <c r="AD34">
-        <v>0.06</v>
+        <v>2428.3</v>
       </c>
       <c r="AE34">
-        <v>0.05820029783978097</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.118200297839781</v>
+        <v>2428.3</v>
       </c>
       <c r="AG34">
-        <v>-4.871799702160219</v>
+        <v>2038.1</v>
       </c>
       <c r="AH34">
-        <v>0.006488033719433666</v>
+        <v>0.6678492849284929</v>
       </c>
       <c r="AI34">
-        <v>-0.04342725798153647</v>
+        <v>0.6662551101599583</v>
       </c>
       <c r="AJ34">
-        <v>-0.3682889276295434</v>
+        <v>0.6279191570645142</v>
       </c>
       <c r="AK34">
-        <v>0.6317331738784058</v>
+        <v>0.6262405899523736</v>
       </c>
       <c r="AL34">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM34">
-        <v>1.3</v>
-      </c>
-      <c r="AN34">
-        <v>4.615384615384616</v>
-      </c>
-      <c r="AO34">
-        <v>-1.146153846153846</v>
-      </c>
-      <c r="AP34">
-        <v>-374.7538232430938</v>
-      </c>
-      <c r="AQ34">
-        <v>-1.146153846153846</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Royalty North Partners Ltd. (TSXV:RNP)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>-0</v>
+      </c>
+      <c r="H35">
+        <v>-0</v>
+      </c>
+      <c r="I35">
+        <v>2.098522167487685</v>
+      </c>
+      <c r="J35">
+        <v>2.098522167487685</v>
+      </c>
+      <c r="K35">
+        <v>-0.674</v>
+      </c>
+      <c r="L35">
+        <v>3.320197044334976</v>
+      </c>
+      <c r="M35">
+        <v>-0</v>
+      </c>
+      <c r="N35">
+        <v>-0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-0</v>
+      </c>
+      <c r="Q35">
+        <v>-0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0.499</v>
+      </c>
+      <c r="V35">
+        <v>0.1068522483940043</v>
+      </c>
+      <c r="W35">
+        <v>-0.115807560137457</v>
+      </c>
+      <c r="X35">
+        <v>0.01808390323227783</v>
+      </c>
+      <c r="Y35">
+        <v>-0.1338914633697349</v>
+      </c>
+      <c r="Z35">
+        <v>-0.02836780324203466</v>
+      </c>
+      <c r="AA35">
+        <v>-0.05953046394633874</v>
+      </c>
+      <c r="AB35">
+        <v>0.01821886697385127</v>
+      </c>
+      <c r="AC35">
+        <v>-0.07774933092019001</v>
+      </c>
+      <c r="AD35">
+        <v>0.847</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0.847</v>
+      </c>
+      <c r="AG35">
+        <v>0.348</v>
+      </c>
+      <c r="AH35">
+        <v>0.1535254667391698</v>
+      </c>
+      <c r="AI35">
+        <v>0.1324058152258871</v>
+      </c>
+      <c r="AJ35">
+        <v>0.0693503387803906</v>
+      </c>
+      <c r="AK35">
+        <v>0.0590030518819939</v>
+      </c>
+      <c r="AL35">
+        <v>0.111</v>
+      </c>
+      <c r="AM35">
+        <v>0.111</v>
+      </c>
+      <c r="AO35">
+        <v>-3.837837837837838</v>
+      </c>
+      <c r="AQ35">
+        <v>-3.837837837837838</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Automotive Finco Corp. (TSXV:AFCC)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>-1.88</v>
+      </c>
+      <c r="M36">
+        <v>3.56</v>
+      </c>
+      <c r="N36">
+        <v>0.1318518518518519</v>
+      </c>
+      <c r="O36">
+        <v>-1.893617021276596</v>
+      </c>
+      <c r="P36">
+        <v>3.56</v>
+      </c>
+      <c r="Q36">
+        <v>0.1318518518518519</v>
+      </c>
+      <c r="R36">
+        <v>-1.893617021276596</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>29.6</v>
+      </c>
+      <c r="V36">
+        <v>1.096296296296296</v>
+      </c>
+      <c r="W36">
+        <v>-0.04973544973544974</v>
+      </c>
+      <c r="X36">
+        <v>0.01705068102297429</v>
+      </c>
+      <c r="Y36">
+        <v>-0.06678613075842403</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>-0.3200000000000011</v>
+      </c>
+      <c r="AB36">
+        <v>0.01705068102297429</v>
+      </c>
+      <c r="AC36">
+        <v>-0.3370506810229754</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>-29.6</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>11.38461538461538</v>
+      </c>
+      <c r="AK36">
+        <v>-98.66666666666761</v>
+      </c>
+      <c r="AL36">
+        <v>0.485</v>
+      </c>
+      <c r="AM36">
+        <v>0.485</v>
+      </c>
+      <c r="AO36">
+        <v>-0.2639175257731959</v>
+      </c>
+      <c r="AQ36">
+        <v>-0.2639175257731959</v>
       </c>
     </row>
   </sheetData>
